--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED08E392-5EA1-4951-B6A0-3D7A0E74BC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E37D5-2C5E-4F38-A006-C2099EA563C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="1755" yWindow="555" windowWidth="25845" windowHeight="13845" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>&lt;object pid="</t>
   </si>
   <si>
-    <t>"&gt;&lt;update type="MODS"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
-  </si>
-  <si>
     <t>&lt;mods:name type="personal"&gt;&lt;mods:namePart&gt;</t>
   </si>
   <si>
@@ -197,13 +194,16 @@
     <t>Locations</t>
   </si>
   <si>
-    <t>&lt;/mods:mods&gt;&lt;/update&gt;&lt;/object&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;mods:description&gt;Ethnic or Racial Identity: </t>
   </si>
   <si>
     <t>Ethnic or Racial Identity</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
   </si>
 </sst>
 </file>
@@ -577,28 +577,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
   <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="24.88671875" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" customWidth="1"/>
-    <col min="27" max="27" width="18.5546875" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" customWidth="1"/>
-    <col min="36" max="36" width="17.5546875" customWidth="1"/>
-    <col min="39" max="39" width="30.88671875" customWidth="1"/>
-    <col min="51" max="51" width="12.5546875" style="5" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" customWidth="1"/>
+    <col min="36" max="36" width="17.5703125" customWidth="1"/>
+    <col min="39" max="39" width="30.85546875" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" style="5" customWidth="1"/>
+    <col min="57" max="57" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -606,193 +606,193 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
         <v>30</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>31</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
         <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>33</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
         <v>34</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>37</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AT1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" t="s">
         <v>38</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>39</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AW1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" t="s">
         <v>40</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>41</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AZ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA1" t="s">
         <v>42</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>43</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD1" t="s">
         <v>44</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>45</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" t="s">
         <v>46</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>47</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BI1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BJ1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BM1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Downloads\SA-updates-20220207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E37D5-2C5E-4F38-A006-C2099EA563C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE3901-8CF3-42FA-AAF3-ADFD1FA1AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="555" windowWidth="25845" windowHeight="13845" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="810" yWindow="1080" windowWidth="25710" windowHeight="13200" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Guide" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>Contributor (Participant) Name</t>
   </si>
@@ -131,9 +132,6 @@
     <t>&lt;/mods:title&gt;&lt;/mods:titleInfo&gt;</t>
   </si>
   <si>
-    <t>&lt;mods:abstract displayLabel="Description"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/mods:abstract&gt;</t>
   </si>
   <si>
@@ -149,15 +147,9 @@
     <t>&lt;/mods:topic&gt;&lt;/mods:subject&gt;</t>
   </si>
   <si>
-    <t>&lt;mods:physicalDescription&gt;&lt;mods:extent&gt;</t>
-  </si>
-  <si>
     <t>&lt;/mods:extent&gt;&lt;/mods:physicalDescription&gt;</t>
   </si>
   <si>
-    <t>&lt;mods:originInfo&gt;&lt;mods:dateCreated encoding="w3cdtf"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/mods:dateCreated&gt;&lt;/mods:originInfo&gt;</t>
   </si>
   <si>
@@ -173,12 +165,6 @@
     <t>&lt;/mods:identifier&gt;</t>
   </si>
   <si>
-    <t>&lt;mods:note displayLabel="Notes"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;mods:accessCondition displayLabel="Rights" type="use and reproduction" xmlns:xlink="http://www.w3.org/1999/xlink" xlink:href="https://creativecommons.org/licenses/by-nc-sa/3.0/"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/mods:accessCondition&gt;</t>
   </si>
   <si>
@@ -200,10 +186,76 @@
     <t>Ethnic or Racial Identity</t>
   </si>
   <si>
-    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
+  </si>
+  <si>
+    <t>Notes and Best Practices</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>DCR Object ID</t>
+  </si>
+  <si>
+    <t>Summary of the resource, typically a summary of the interview</t>
+  </si>
+  <si>
+    <t>Interviewee name, in inverted order. Should include family and given names but not dates or terms of address (Jr., II, etc.). Example: "Maris, Amanda L."</t>
+  </si>
+  <si>
+    <t>Interview producer, "UNC Libraries"</t>
+  </si>
+  <si>
+    <t>Interviewer name, in inverted order. Should include family and given names but not dates or terms of address (Jr., II, etc.). Example: "Tanks, Cassie"</t>
+  </si>
+  <si>
+    <t>Title of object, typically title of interview</t>
+  </si>
+  <si>
+    <t>Free text field with description of where the interview took place.</t>
+  </si>
+  <si>
+    <t>Keywords provided by Interviewee, separated with semicolons. Example: "undergrad; Silent Sam; COVID-19; coronavirus; university response"</t>
+  </si>
+  <si>
+    <t>Locations relevant to interview, separated with semicolons. Example: "San Francisco; The Pit"</t>
+  </si>
+  <si>
+    <t>Duration of interview, formatted as HH:MM:SS. Example: "00:23:59"</t>
+  </si>
+  <si>
+    <t>Date interview was recorded, formatted as YYYY-MM-DD, YYYY-MM, or YYYY. EDTF formatting may be used for other types of dates. Examples: "2021-07-28", "2019~"</t>
+  </si>
+  <si>
+    <t>Genre term from Library of Congress Genre/Form Terms. Typically "Oral histories".</t>
+  </si>
+  <si>
+    <t>5-digit archival collection number. "70096"</t>
+  </si>
+  <si>
+    <t>Miscellaneous notes that are not suitable for any other field</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:accessCondition displayLabel="License" type="use and reproduction" xlink:href="https://creativecommons.org/licenses/by-nc-sa/3.0/"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:abstract&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:note&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:originInfo&gt;&lt;mods:dateCreated encoding="edtf"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:physicalDescription displayLabel="Duration"&gt;&lt;mods:extent unit="hours"&gt;</t>
+  </si>
+  <si>
+    <t>"Creative Commons Attribution-NonCommercial-ShareAlike 3.0 Unported License. You may freely copy, modify, and share these items for non-commercial purposes under the same terms if they include original source information."</t>
   </si>
 </sst>
 </file>
@@ -254,13 +306,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,9 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
   <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -594,6 +645,7 @@
     <col min="33" max="33" width="11.28515625" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" customWidth="1"/>
     <col min="39" max="39" width="30.85546875" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" style="5"/>
     <col min="51" max="51" width="12.5703125" style="5" customWidth="1"/>
     <col min="57" max="57" width="18.28515625" customWidth="1"/>
   </cols>
@@ -606,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -627,10 +679,10 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -693,106 +745,283 @@
         <v>31</v>
       </c>
       <c r="AF1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
         <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>36</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AT1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW1" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>39</v>
-      </c>
       <c r="AX1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AZ1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BA1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BC1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BD1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BF1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BG1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BI1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BJ1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BM1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD56D4-8BE4-4A5D-B443-4AB7EB265FA6}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Downloads\SA-updates-20220207\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE3901-8CF3-42FA-AAF3-ADFD1FA1AF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96006D6A-0EE2-40AB-9B61-D08C696F0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1080" windowWidth="25710" windowHeight="13200" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="1200" yWindow="810" windowWidth="25710" windowHeight="13620" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
   </si>
   <si>
-    <t>&lt;mods:accessCondition displayLabel="License" type="use and reproduction" xlink:href="https://creativecommons.org/licenses/by-nc-sa/3.0/"&gt;</t>
-  </si>
-  <si>
     <t>&lt;mods:abstract&gt;</t>
   </si>
   <si>
@@ -255,7 +252,10 @@
     <t>&lt;mods:physicalDescription displayLabel="Duration"&gt;&lt;mods:extent unit="hours"&gt;</t>
   </si>
   <si>
-    <t>"Creative Commons Attribution-NonCommercial-ShareAlike 3.0 Unported License. You may freely copy, modify, and share these items for non-commercial purposes under the same terms if they include original source information."</t>
+    <t>&lt;mods:accessCondition displayLabel="License" type="use and reproduction" xlink:href="https://creativecommons.org/licenses/by-nc-sa/4.0/"&gt;</t>
+  </si>
+  <si>
+    <t>"Attribution-NonCommercial-ShareAlike 4.0 International (CC BY-NC-SA 4.0)"</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
   <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="AF1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>2</v>
@@ -790,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="AU1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AV1" s="4" t="s">
         <v>9</v>
@@ -799,7 +801,7 @@
         <v>37</v>
       </c>
       <c r="AX1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>12</v>
@@ -826,7 +828,7 @@
         <v>42</v>
       </c>
       <c r="BG1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>14</v>
@@ -835,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="BJ1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>15</v>
@@ -858,7 +860,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/goslen_ad_unc_edu/Documents/Desktop/update-sa-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96006D6A-0EE2-40AB-9B61-D08C696F0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{96006D6A-0EE2-40AB-9B61-D08C696F0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADAE6D2-0FCD-45B1-AEBB-1F966E4BB486}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="810" windowWidth="25710" windowHeight="13620" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>Contributor (Participant) Name</t>
   </si>
@@ -256,6 +256,60 @@
   </si>
   <si>
     <t>"Attribution-NonCommercial-ShareAlike 4.0 International (CC BY-NC-SA 4.0)"</t>
+  </si>
+  <si>
+    <t>Gender Identity, Sexuality (Contributor 1)</t>
+  </si>
+  <si>
+    <t>Ethnic or Racial Identity (Contributor 1)</t>
+  </si>
+  <si>
+    <t>Pronouns (Contributor 1)</t>
+  </si>
+  <si>
+    <t>Age at recording (Contributor 1)</t>
+  </si>
+  <si>
+    <t>Participant Correct Spelling (Contributor 1)</t>
+  </si>
+  <si>
+    <t>Contributor 1 (Participant) Name</t>
+  </si>
+  <si>
+    <t>Contributor 2 (Participant) Name</t>
+  </si>
+  <si>
+    <t>Gender Identity, Sexuality (Contributor 2)</t>
+  </si>
+  <si>
+    <t>Ethnic or Racial Identity (Contributor 2)</t>
+  </si>
+  <si>
+    <t>Pronouns (Contributor 2)</t>
+  </si>
+  <si>
+    <t>Age at recording (Contributor 2)</t>
+  </si>
+  <si>
+    <t>Participant Correct Spelling (Contributor 2)</t>
+  </si>
+  <si>
+    <t>Contributor 3 (Participant) Name</t>
+  </si>
+  <si>
+    <t>Gender Identity, Sexuality (Contributor 3)</t>
+  </si>
+  <si>
+    <t>Ethnic or Racial Identity (Contributor 3)</t>
+  </si>
+  <si>
+    <t>Pronouns (Contributor 3)</t>
+  </si>
+  <si>
+    <t>Age at recording (Contributor 3)</t>
+  </si>
+  <si>
+    <t>Participant Correct Spelling (Contributor 3)</t>
   </si>
 </sst>
 </file>
@@ -286,12 +340,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,14 +396,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:CY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,17 +740,18 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="24.85546875" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" customWidth="1"/>
-    <col min="36" max="36" width="17.5703125" customWidth="1"/>
-    <col min="39" max="39" width="30.85546875" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="5"/>
-    <col min="51" max="51" width="12.5703125" style="5" customWidth="1"/>
-    <col min="57" max="57" width="18.28515625" customWidth="1"/>
+    <col min="23" max="60" width="9.140625" style="8"/>
+    <col min="62" max="62" width="9.140625" customWidth="1"/>
+    <col min="65" max="65" width="18.5703125" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" customWidth="1"/>
+    <col min="74" max="74" width="17.5703125" customWidth="1"/>
+    <col min="77" max="77" width="30.85546875" customWidth="1"/>
+    <col min="86" max="86" width="9.140625" style="4"/>
+    <col min="89" max="89" width="12.5703125" style="4" customWidth="1"/>
+    <col min="95" max="95" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -662,190 +761,304 @@
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="N1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="T1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BK1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BL1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BN1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BO1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BQ1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BT1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BU1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BW1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BX1" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BZ1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="CA1" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="CC1" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="CD1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="CF1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="CG1" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="CH1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="CI1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="CJ1" t="s">
         <v>70</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="CK1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CL1" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CM1" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CO1" t="s">
         <v>40</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CP1" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CR1" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CS1" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CU1" t="s">
         <v>34</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CV1" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="CX1" t="s">
         <v>43</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CY1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -877,7 +1090,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -885,7 +1098,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -893,32 +1106,32 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -926,7 +1139,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -934,7 +1147,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
@@ -942,7 +1155,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -950,7 +1163,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -958,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -966,7 +1179,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -974,12 +1187,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
@@ -987,7 +1200,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -995,7 +1208,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
@@ -1003,7 +1216,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -1011,7 +1224,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
@@ -1019,7 +1232,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/goslen_ad_unc_edu/Documents/Desktop/update-sa-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\git_repos\box-c-mods-templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{96006D6A-0EE2-40AB-9B61-D08C696F0DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADAE6D2-0FCD-45B1-AEBB-1F966E4BB486}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74121E21-8FC5-4C4D-9440-02A756289549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="1845" yWindow="705" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Contributor (Participant) Name</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Participant Correct Spelling (Contributor 3)</t>
+  </si>
+  <si>
+    <t>&lt;mods:identifier displayLabel="Digital Folder Number" type="local"&gt;</t>
+  </si>
+  <si>
+    <t>Digital Folder number</t>
+  </si>
+  <si>
+    <t>The Digital Folder number assigned to the interview, for linking to the interview from the Finding Aid</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,7 +414,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -726,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
-  <dimension ref="A1:CY1"/>
+  <dimension ref="A1:DB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="DA1" sqref="DA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +748,6 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
     <col min="20" max="20" width="24.85546875" customWidth="1"/>
-    <col min="23" max="60" width="9.140625" style="8"/>
     <col min="62" max="62" width="9.140625" customWidth="1"/>
     <col min="65" max="65" width="18.5703125" customWidth="1"/>
     <col min="71" max="71" width="11.28515625" customWidth="1"/>
@@ -751,7 +758,7 @@
     <col min="95" max="95" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -818,118 +825,118 @@
       <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AN1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AR1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AU1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AW1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AX1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AX1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="BA1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BA1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BC1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="BD1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BD1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="BG1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BG1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="BI1" t="s">
@@ -1059,6 +1066,15 @@
         <v>43</v>
       </c>
       <c r="CY1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DB1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1070,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD56D4-8BE4-4A5D-B443-4AB7EB265FA6}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,6 +1255,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\git_repos\box-c-mods-templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74121E21-8FC5-4C4D-9440-02A756289549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43000CEB-B509-44F7-9D4E-22A2A87AC771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="705" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Contributor (Participant) Name</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Ethnic or Racial Identity</t>
   </si>
   <si>
-    <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
-  </si>
-  <si>
     <t>Notes and Best Practices</t>
   </si>
   <si>
@@ -319,6 +316,15 @@
   </si>
   <si>
     <t>The Digital Folder number assigned to the interview, for linking to the interview from the Finding Aid</t>
+  </si>
+  <si>
+    <t>&lt;mods:typeOfResource&gt;sound recording-nonmusical&lt;/mods:typeOfResource&gt;&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
+  </si>
+  <si>
+    <t>Type of Resource</t>
+  </si>
+  <si>
+    <t>constant value embedded in template- "sound recording-nonmusical"</t>
   </si>
 </sst>
 </file>
@@ -736,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
   <dimension ref="A1:DB1"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="DA1" sqref="DA1"/>
+    <sheetView topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="DB1" sqref="DB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>28</v>
@@ -781,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
@@ -790,7 +796,7 @@
         <v>48</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>21</v>
@@ -799,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>21</v>
@@ -808,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>21</v>
@@ -817,7 +823,7 @@
         <v>24</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>21</v>
@@ -829,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>28</v>
@@ -838,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>21</v>
@@ -847,7 +853,7 @@
         <v>48</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE1" s="11" t="s">
         <v>21</v>
@@ -856,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH1" s="11" t="s">
         <v>21</v>
@@ -865,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK1" s="11" t="s">
         <v>21</v>
@@ -874,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN1" s="11" t="s">
         <v>21</v>
@@ -886,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="AQ1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR1" s="13" t="s">
         <v>28</v>
@@ -895,7 +901,7 @@
         <v>20</v>
       </c>
       <c r="AT1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU1" s="13" t="s">
         <v>21</v>
@@ -904,7 +910,7 @@
         <v>48</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX1" s="13" t="s">
         <v>21</v>
@@ -913,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="13" t="s">
         <v>21</v>
@@ -922,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>21</v>
@@ -931,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG1" s="13" t="s">
         <v>21</v>
@@ -967,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>2</v>
@@ -1012,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="CG1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CH1" s="3" t="s">
         <v>9</v>
@@ -1021,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="CJ1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CK1" s="3" t="s">
         <v>12</v>
@@ -1048,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="CS1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CT1" s="1" t="s">
         <v>14</v>
@@ -1057,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="CV1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>15</v>
@@ -1066,16 +1072,16 @@
         <v>43</v>
       </c>
       <c r="CY1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="DA1" t="s">
         <v>42</v>
       </c>
       <c r="DB1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD56D4-8BE4-4A5D-B443-4AB7EB265FA6}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,10 +1105,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,15 +1258,23 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\git_repos\box-c-mods-templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43000CEB-B509-44F7-9D4E-22A2A87AC771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC0096-D770-4BA6-8FF1-F0FCE1D1E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="1575" yWindow="765" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -168,12 +168,6 @@
     <t>&lt;/mods:accessCondition&gt;</t>
   </si>
   <si>
-    <t>Interviewee Keywords and Topics</t>
-  </si>
-  <si>
-    <t>&lt;mods:note displayLabel="Interviewee Keywords and Topics"&gt;</t>
-  </si>
-  <si>
     <t>&lt;mods:note displayLabel="Locations"&gt;</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>constant value embedded in template- "sound recording-nonmusical"</t>
+  </si>
+  <si>
+    <t>&lt;mods:note displayLabel="Keywords"&gt;</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
   <dimension ref="A1:DB1"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="DB1" sqref="DB1"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BX1" sqref="BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>28</v>
@@ -787,16 +787,16 @@
         <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>21</v>
@@ -805,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>21</v>
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>21</v>
@@ -823,7 +823,7 @@
         <v>24</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>21</v>
@@ -835,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>28</v>
@@ -844,16 +844,16 @@
         <v>20</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AE1" s="11" t="s">
         <v>21</v>
@@ -862,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="11" t="s">
         <v>21</v>
@@ -871,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK1" s="11" t="s">
         <v>21</v>
@@ -880,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AN1" s="11" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="AQ1" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AR1" s="13" t="s">
         <v>28</v>
@@ -901,16 +901,16 @@
         <v>20</v>
       </c>
       <c r="AT1" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AU1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="13" t="s">
         <v>21</v>
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BA1" s="13" t="s">
         <v>21</v>
@@ -928,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BD1" s="13" t="s">
         <v>21</v>
@@ -937,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG1" s="13" t="s">
         <v>21</v>
@@ -973,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="BR1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>2</v>
@@ -991,19 +991,19 @@
         <v>34</v>
       </c>
       <c r="BX1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="BZ1" t="s">
         <v>34</v>
       </c>
       <c r="CA1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CC1" t="s">
         <v>34</v>
@@ -1018,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="CG1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="CH1" s="3" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="CJ1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="CK1" s="3" t="s">
         <v>12</v>
@@ -1054,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="CS1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CT1" s="1" t="s">
         <v>14</v>
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="CV1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>15</v>
@@ -1072,16 +1072,16 @@
         <v>43</v>
       </c>
       <c r="CY1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DA1" t="s">
         <v>42</v>
       </c>
       <c r="DB1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,10 +1105,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,23 +1189,23 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,23 +1258,23 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ExceltoMODSWF/SA-MODS-template.xlsx
+++ b/ExceltoMODSWF/SA-MODS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\git_repos\box-c-mods-templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC0096-D770-4BA6-8FF1-F0FCE1D1E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CBF125-1B66-4FE8-B28E-1643DBD5A019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="765" windowWidth="24180" windowHeight="14115" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
+    <workbookView xWindow="2565" yWindow="1410" windowWidth="24180" windowHeight="12855" activeTab="1" xr2:uid="{30AE1F1C-9D6D-4975-B041-019DDB28DD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>Contributor (Participant) Name</t>
   </si>
@@ -325,6 +325,21 @@
   </si>
   <si>
     <t>Keywords</t>
+  </si>
+  <si>
+    <t>&lt;mods:language&gt;&lt;mods:languageTerm authority="iso639-2b" type="code"&gt;</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>&lt;/mods:languageTerm&gt;&lt;/mods:language&gt;</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>Language of the oral history, using code from ISO 639-2/b. "eng" is code for English. See full list (codes in first column) at https://www.loc.gov/standards/iso639-2/php/code_list.php. If there is another language used in the interview, copy the Language column and the two surrounding columns (three columns in total) and use to add three additional columns to spreadsheet. Enter the additional language code in the new, second Language column.</t>
   </si>
 </sst>
 </file>
@@ -740,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589D00E9-24EF-4C42-B836-025FE26EDFD9}">
-  <dimension ref="A1:DB1"/>
+  <dimension ref="A1:DE2"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BX1" sqref="BX1"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +779,7 @@
     <col min="95" max="95" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1096,21 @@
         <v>42</v>
       </c>
       <c r="DB1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DE1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="DC2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1092,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD56D4-8BE4-4A5D-B443-4AB7EB265FA6}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1306,14 @@
         <v>94</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
